--- a/email.xlsx
+++ b/email.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljf/Documents/repositories/ljf/github/academic-misconduct/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A86CC9-FD8D-3D4C-9A92-BDA5CE0F1434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D70696-9588-5C47-9FFA-DBB9D3A5B431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{DF47A8FE-A806-2047-BEEF-8248A1C27ACA}"/>
+    <workbookView xWindow="1420" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{DF47A8FE-A806-2047-BEEF-8248A1C27ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>ghost-submitted-papers; junk-email</t>
+  </si>
+  <si>
+    <t>tlb_sci@163.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>wechat</t>
   </si>
 </sst>
 </file>
@@ -404,19 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55A36C-73BC-4345-B799-C6832031DA58}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="75.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +446,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,8 +466,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="F2">
+        <v>76528226</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -456,12 +482,33 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="F3">
+        <v>76528226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>18302189343</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{672C575D-7AA1-6B40-8B54-938896EBEFE1}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{B458FBD3-6125-794E-8584-6CEBD12E7E41}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{B66579A5-6B67-7F48-A44A-B95E9D8C33CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/email.xlsx
+++ b/email.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljf/Documents/repositories/ljf/github/academic-misconduct/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljf/Documents/repositories/ljf/github/blackplans/academic-misconduct/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D70696-9588-5C47-9FFA-DBB9D3A5B431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743001F0-BF6E-A04B-9748-0AC89DDE3107}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{DF47A8FE-A806-2047-BEEF-8248A1C27ACA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>wechat</t>
+  </si>
+  <si>
+    <t>vote</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55A36C-73BC-4345-B799-C6832031DA58}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +436,7 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +455,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="F2">
         <v>76528226</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -486,8 +495,11 @@
       <c r="F3">
         <v>76528226</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -502,6 +514,9 @@
       </c>
       <c r="E4">
         <v>18302189343</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
